--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="183">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -364,16 +364,16 @@
     <t xml:space="preserve">ರಬತ್ ಸಲೆ ಕೆನಿತ್ರ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಪ್ರದೇಶ</t>
+    <t xml:space="preserve">ಪ್ರದೇಶ</t>
   </si>
   <si>
     <t xml:space="preserve">ಕೆನಿತ್ರಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಪ್ರಾಂತ್ಯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ನಗರ</t>
+    <t xml:space="preserve">ಪ್ರಾಂತ್ಯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಗರ</t>
   </si>
   <si>
     <t xml:space="preserve">ಬಿನ್ ಮನ್ಸೂರ್</t>
@@ -430,22 +430,19 @@
     <t xml:space="preserve">ಎಲ್ ಯೂಸುಫಿಯಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೋಡ್</t>
-  </si>
-  <si>
     <t xml:space="preserve">hin</t>
   </si>
   <si>
     <t xml:space="preserve">मेरा देश</t>
   </si>
   <si>
-    <t xml:space="preserve"> देश</t>
+    <t xml:space="preserve">देश</t>
   </si>
   <si>
     <t xml:space="preserve">रबात बिक्री केनित्र</t>
   </si>
   <si>
-    <t xml:space="preserve"> क्षेत्र</t>
+    <t xml:space="preserve">क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">केनिट्रा</t>
@@ -454,7 +451,7 @@
     <t xml:space="preserve">प्रांत</t>
   </si>
   <si>
-    <t xml:space="preserve"> शहर</t>
+    <t xml:space="preserve">शहर</t>
   </si>
   <si>
     <t xml:space="preserve">बेन मंसूर</t>
@@ -466,9 +463,6 @@
     <t xml:space="preserve">मनासरा</t>
   </si>
   <si>
-    <t xml:space="preserve">क्षेत्र</t>
-  </si>
-  <si>
     <t xml:space="preserve">माइग्रेन</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t xml:space="preserve">रबात</t>
   </si>
   <si>
-    <t xml:space="preserve">शहर</t>
-  </si>
-  <si>
     <t xml:space="preserve">अगडाला</t>
   </si>
   <si>
@@ -514,13 +505,10 @@
     <t xml:space="preserve">अल युसूफिया</t>
   </si>
   <si>
-    <t xml:space="preserve"> डाक कोड</t>
-  </si>
-  <si>
     <t xml:space="preserve">tam</t>
   </si>
   <si>
-    <t xml:space="preserve"> நாடு</t>
+    <t xml:space="preserve">நாடு</t>
   </si>
   <si>
     <t xml:space="preserve">ரபத் சேல் கெனிட்ரா</t>
@@ -797,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C122" activeCellId="0" sqref="C122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4402,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>101</v>
@@ -4425,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>35</v>
@@ -4448,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>35</v>
@@ -4471,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>35</v>
@@ -4494,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>35</v>
@@ -4505,19 +4493,19 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>11</v>
@@ -4525,19 +4513,19 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>8</v>
@@ -4548,19 +4536,19 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>18</v>
@@ -4571,19 +4559,19 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>25</v>
@@ -4594,19 +4582,19 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>31</v>
@@ -4617,7 +4605,7 @@
     </row>
     <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>40</v>
@@ -4629,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>35</v>
@@ -4640,19 +4628,19 @@
     </row>
     <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>31</v>
@@ -4663,7 +4651,7 @@
     </row>
     <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>47</v>
@@ -4675,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>44</v>
@@ -4686,19 +4674,19 @@
     </row>
     <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>31</v>
@@ -4709,7 +4697,7 @@
     </row>
     <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>51</v>
@@ -4721,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>48</v>
@@ -4732,19 +4720,19 @@
     </row>
     <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>31</v>
@@ -4755,7 +4743,7 @@
     </row>
     <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>55</v>
@@ -4767,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>52</v>
@@ -4778,19 +4766,19 @@
     </row>
     <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>31</v>
@@ -4801,7 +4789,7 @@
     </row>
     <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>59</v>
@@ -4813,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>56</v>
@@ -4824,19 +4812,19 @@
     </row>
     <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>31</v>
@@ -4847,7 +4835,7 @@
     </row>
     <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>63</v>
@@ -4859,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>60</v>
@@ -4870,19 +4858,19 @@
     </row>
     <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>31</v>
@@ -4893,7 +4881,7 @@
     </row>
     <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>67</v>
@@ -4905,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>64</v>
@@ -4916,19 +4904,19 @@
     </row>
     <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>31</v>
@@ -4939,7 +4927,7 @@
     </row>
     <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>71</v>
@@ -4951,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>68</v>
@@ -4962,19 +4950,19 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>18</v>
@@ -4985,19 +4973,19 @@
     </row>
     <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>72</v>
@@ -5008,19 +4996,19 @@
     </row>
     <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>75</v>
@@ -5031,7 +5019,7 @@
     </row>
     <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>79</v>
@@ -5043,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>76</v>
@@ -5054,19 +5042,19 @@
     </row>
     <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>75</v>
@@ -5077,7 +5065,7 @@
     </row>
     <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>83</v>
@@ -5089,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>80</v>
@@ -5100,19 +5088,19 @@
     </row>
     <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>75</v>
@@ -5123,7 +5111,7 @@
     </row>
     <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>87</v>
@@ -5135,7 +5123,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>84</v>
@@ -5146,19 +5134,19 @@
     </row>
     <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>75</v>
@@ -5169,7 +5157,7 @@
     </row>
     <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>91</v>
@@ -5181,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>88</v>
@@ -5192,19 +5180,19 @@
     </row>
     <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>75</v>
@@ -5215,7 +5203,7 @@
     </row>
     <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>95</v>
@@ -5227,7 +5215,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>92</v>
@@ -5238,19 +5226,19 @@
     </row>
     <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>75</v>
@@ -5261,7 +5249,7 @@
     </row>
     <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>100</v>
@@ -5273,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>96</v>
@@ -5284,19 +5272,19 @@
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>75</v>
@@ -5307,7 +5295,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>104</v>
@@ -5319,7 +5307,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>101</v>
@@ -5330,7 +5318,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>105</v>
@@ -5342,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>35</v>
@@ -5353,7 +5341,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>106</v>
@@ -5365,7 +5353,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>35</v>
@@ -5376,7 +5364,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>107</v>
@@ -5388,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>35</v>
@@ -5399,7 +5387,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>108</v>
@@ -5411,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>35</v>
@@ -5422,7 +5410,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>8</v>
@@ -5434,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>11</v>
@@ -5442,19 +5430,19 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>8</v>
@@ -5465,19 +5453,19 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>18</v>
@@ -5488,19 +5476,19 @@
     </row>
     <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>25</v>
@@ -5511,19 +5499,19 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>31</v>
@@ -5534,7 +5522,7 @@
     </row>
     <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>40</v>
@@ -5546,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>35</v>
@@ -5557,19 +5545,19 @@
     </row>
     <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>31</v>
@@ -5580,7 +5568,7 @@
     </row>
     <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>47</v>
@@ -5592,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>44</v>
@@ -5603,19 +5591,19 @@
     </row>
     <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>31</v>
@@ -5626,7 +5614,7 @@
     </row>
     <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>51</v>
@@ -5638,7 +5626,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>48</v>
@@ -5649,19 +5637,19 @@
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>31</v>
@@ -5672,7 +5660,7 @@
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>55</v>
@@ -5684,7 +5672,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>52</v>
@@ -5695,7 +5683,7 @@
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>56</v>
@@ -5707,7 +5695,7 @@
         <v>4</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>31</v>
@@ -5718,7 +5706,7 @@
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>59</v>
@@ -5730,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>56</v>
@@ -5741,19 +5729,19 @@
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>31</v>
@@ -5764,7 +5752,7 @@
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>63</v>
@@ -5776,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>60</v>
@@ -5787,19 +5775,19 @@
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>31</v>
@@ -5810,7 +5798,7 @@
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>67</v>
@@ -5822,7 +5810,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>64</v>
@@ -5833,19 +5821,19 @@
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>31</v>
@@ -5856,7 +5844,7 @@
     </row>
     <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>71</v>
@@ -5868,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>68</v>
@@ -5879,19 +5867,19 @@
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>18</v>
@@ -5902,19 +5890,19 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>72</v>
@@ -5925,19 +5913,19 @@
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>75</v>
@@ -5948,7 +5936,7 @@
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>79</v>
@@ -5960,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>76</v>
@@ -5971,19 +5959,19 @@
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>75</v>
@@ -5994,7 +5982,7 @@
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>83</v>
@@ -6006,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>80</v>
@@ -6017,7 +6005,7 @@
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>84</v>
@@ -6029,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>75</v>
@@ -6040,7 +6028,7 @@
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>87</v>
@@ -6052,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>84</v>
@@ -6063,19 +6051,19 @@
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>75</v>
@@ -6086,7 +6074,7 @@
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>91</v>
@@ -6098,7 +6086,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>88</v>
@@ -6109,19 +6097,19 @@
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>75</v>
@@ -6132,7 +6120,7 @@
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>95</v>
@@ -6144,7 +6132,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>92</v>
@@ -6155,19 +6143,19 @@
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>75</v>
@@ -6178,7 +6166,7 @@
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>100</v>
@@ -6190,7 +6178,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>96</v>
@@ -6201,19 +6189,19 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>75</v>
@@ -6224,7 +6212,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>104</v>
@@ -6236,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
@@ -6247,7 +6235,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>105</v>
@@ -6259,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>35</v>
@@ -6270,7 +6258,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>106</v>
@@ -6282,7 +6270,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>35</v>
@@ -6293,7 +6281,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>107</v>
@@ -6305,7 +6293,7 @@
         <v>5</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>35</v>
@@ -6316,7 +6304,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>108</v>
@@ -6328,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>35</v>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="184">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -442,19 +442,22 @@
     <t xml:space="preserve">रबात बिक्री केनित्र</t>
   </si>
   <si>
+    <t xml:space="preserve">क्षेत्रों</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केनिट्रा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्रांत</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शहर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बेन मंसूर</t>
+  </si>
+  <si>
     <t xml:space="preserve">क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">केनिट्रा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्रांत</t>
-  </si>
-  <si>
-    <t xml:space="preserve">शहर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बेन मंसूर</t>
   </si>
   <si>
     <t xml:space="preserve">डाक कोड</t>
@@ -785,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D217" activeCellId="0" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4594,7 +4597,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>31</v>
@@ -4617,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>35</v>
@@ -4634,13 +4637,13 @@
         <v>44</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>31</v>
@@ -4663,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>44</v>
@@ -4680,13 +4683,13 @@
         <v>48</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>31</v>
@@ -4709,7 +4712,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>48</v>
@@ -4726,13 +4729,13 @@
         <v>52</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>31</v>
@@ -4755,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>52</v>
@@ -4772,13 +4775,13 @@
         <v>56</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>31</v>
@@ -4801,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>56</v>
@@ -4818,13 +4821,13 @@
         <v>60</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>31</v>
@@ -4847,7 +4850,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>60</v>
@@ -4864,13 +4867,13 @@
         <v>64</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>31</v>
@@ -4893,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>64</v>
@@ -4910,13 +4913,13 @@
         <v>68</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>31</v>
@@ -4939,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>68</v>
@@ -4956,7 +4959,7 @@
         <v>72</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>2</v>
@@ -4979,7 +4982,7 @@
         <v>75</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>3</v>
@@ -5002,13 +5005,13 @@
         <v>76</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>75</v>
@@ -5031,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>76</v>
@@ -5048,13 +5051,13 @@
         <v>80</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>75</v>
@@ -5077,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>80</v>
@@ -5094,13 +5097,13 @@
         <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>75</v>
@@ -5123,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>84</v>
@@ -5140,13 +5143,13 @@
         <v>88</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>75</v>
@@ -5169,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>88</v>
@@ -5186,13 +5189,13 @@
         <v>92</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>75</v>
@@ -5215,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>92</v>
@@ -5232,13 +5235,13 @@
         <v>96</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>75</v>
@@ -5261,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>96</v>
@@ -5278,13 +5281,13 @@
         <v>101</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>75</v>
@@ -5307,7 +5310,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>101</v>
@@ -5330,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>35</v>
@@ -5353,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>35</v>
@@ -5376,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>35</v>
@@ -5399,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>35</v>
@@ -5410,7 +5413,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>8</v>
@@ -5422,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>11</v>
@@ -5430,19 +5433,19 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>8</v>
@@ -5453,19 +5456,19 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>18</v>
@@ -5476,19 +5479,19 @@
     </row>
     <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>25</v>
@@ -5499,19 +5502,19 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>31</v>
@@ -5522,7 +5525,7 @@
     </row>
     <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>40</v>
@@ -5534,7 +5537,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>35</v>
@@ -5545,19 +5548,19 @@
     </row>
     <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>31</v>
@@ -5568,7 +5571,7 @@
     </row>
     <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>47</v>
@@ -5580,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>44</v>
@@ -5591,19 +5594,19 @@
     </row>
     <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>31</v>
@@ -5614,7 +5617,7 @@
     </row>
     <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>51</v>
@@ -5626,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>48</v>
@@ -5637,19 +5640,19 @@
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>31</v>
@@ -5660,7 +5663,7 @@
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>55</v>
@@ -5672,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>52</v>
@@ -5683,7 +5686,7 @@
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>56</v>
@@ -5695,7 +5698,7 @@
         <v>4</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>31</v>
@@ -5706,7 +5709,7 @@
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>59</v>
@@ -5718,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>56</v>
@@ -5729,19 +5732,19 @@
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>31</v>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>63</v>
@@ -5764,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>60</v>
@@ -5775,19 +5778,19 @@
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>31</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>67</v>
@@ -5810,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>64</v>
@@ -5821,19 +5824,19 @@
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>31</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>71</v>
@@ -5856,7 +5859,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>68</v>
@@ -5867,19 +5870,19 @@
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>18</v>
@@ -5890,19 +5893,19 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>72</v>
@@ -5913,19 +5916,19 @@
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>75</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>79</v>
@@ -5948,7 +5951,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>76</v>
@@ -5959,19 +5962,19 @@
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>75</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>83</v>
@@ -5994,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>80</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>84</v>
@@ -6017,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>75</v>
@@ -6028,7 +6031,7 @@
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>87</v>
@@ -6040,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>84</v>
@@ -6051,19 +6054,19 @@
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>75</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>91</v>
@@ -6086,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>88</v>
@@ -6097,19 +6100,19 @@
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>75</v>
@@ -6120,7 +6123,7 @@
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>95</v>
@@ -6132,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>92</v>
@@ -6143,19 +6146,19 @@
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>75</v>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>100</v>
@@ -6178,7 +6181,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>96</v>
@@ -6189,19 +6192,19 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>75</v>
@@ -6212,7 +6215,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>104</v>
@@ -6224,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>105</v>
@@ -6247,7 +6250,7 @@
         <v>5</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>35</v>
@@ -6258,7 +6261,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>106</v>
@@ -6270,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>35</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>107</v>
@@ -6293,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>35</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>108</v>
@@ -6316,7 +6319,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>35</v>
@@ -6335,7 +6338,7 @@
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
